--- a/Analysis FCS and rCSI/ts_rcsi.xlsx
+++ b/Analysis FCS and rCSI/ts_rcsi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Abyan</t>
   </si>
@@ -78,11 +78,17 @@
   <si>
     <t>Taizz</t>
   </si>
+  <si>
+    <t>Datetime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -135,9 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,3259 +443,3409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B2">
         <v>81.7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>91.67</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>79.15000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>79.33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>83.09999999999999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>85.73999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>74.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>89.55</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>80.29000000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>87.52</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>70.84</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>95.81</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>85.11</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>71.12</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>92.91</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>96.81</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>92.45999999999999</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>86.89</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>83.86</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>69.22</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>88.64</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="2">
+        <v>42308</v>
+      </c>
+      <c r="B3">
         <v>81.99000000000001</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>87.86</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>69.58</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>86.36</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>91.68000000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>93.54000000000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>75</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>87.56</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>81.04000000000001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>87.59999999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>64.17</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>98.56</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>85.11</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>74.81</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>93.56</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>90.54000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>90.85142857142857</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>89.29000000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>82.34</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>71.59</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>89.67</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B4">
         <v>82.28</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>89.3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>73.95</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>83.01000000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>82.87</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>86.94</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>80</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>91.52</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>84.95</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>87.73999999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>75.98999999999999</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>98.20999999999999</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>85.34999999999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>73.69</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>86.93000000000001</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>91.41</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>89.24285714285713</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>80.14</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>79.27</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>72.87</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>90.7</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B5">
         <v>88.54000000000001</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>84.31</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>69.98999999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>85.7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>81.43000000000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>87.39</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>64.78</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>86.18000000000001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>82.13</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>85.02</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>78.61</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>88.17</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>83.13</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>84.28</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>74.33</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>93.48</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>87.63428571428571</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>87.84999999999999</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>80.77</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>77</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>87.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="2">
+        <v>42400</v>
+      </c>
+      <c r="B6">
         <v>88.36</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>87.06</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>60.77</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>79.08</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>77.47</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>84.34999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>65.03</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>87.06</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>79.78</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>80.09</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>83.98</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>93.45999999999999</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>82.33</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>78.94</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>74.88</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>90.61</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>86.02571428571429</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>81.97</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>76.88</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>80.97</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>86.20999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B7">
         <v>88.36</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>84.55</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>56.9</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>80.04000000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74.91</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>81.20999999999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>62.97</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>89.91</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>82.61</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>90.31</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>83.33</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>91.17</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>79.52</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>80.56</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>73.33</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>95.02</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>84.41714285714286</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>84.12</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>80.38</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>81.48</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>84.37</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
+    <row r="8" spans="1:22">
+      <c r="A8" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B8">
         <v>83.8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>85.37</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>63.39</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>83.08</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>77.83</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>77.17</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>46.79</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>90.95</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>89.91</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>91.7</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>79.72</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>96.53</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>89.63</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>75.08</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>83.05</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>96.98</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>82.80857142857143</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>84.64</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>77.84</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>80.12</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>94.84</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:22">
+      <c r="A9" s="2">
+        <v>42490</v>
+      </c>
+      <c r="B9">
         <v>83.48</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>79.98</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>77.23</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>80.84</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>73.38</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>82.31999999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>64.27</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>86.19</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>92.34999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>94.27</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>67.73</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>98.13</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>87.79000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>74.93000000000001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>87.86</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>90.93000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>81.2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>80.81</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>79.40000000000001</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>70.67</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B10">
         <v>81.7</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>88.29000000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>65.59</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>79.47</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>75.63</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>88.59999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>49.09</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>90.41</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>93.02</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>91.59</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>68.89</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>95.48999999999999</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>89.3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>72.98999999999999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>86.06999999999999</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>94.39</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>77.02</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>83.97</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>83.09999999999999</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>73.52</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>91.88</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B11">
         <v>84.18000000000001</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>87.15000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>75.67</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>77.53</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>84.09999999999999</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>77.64</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49.67</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>87.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>90.90000000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>93.19</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>62.5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>92.2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>85.61</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>77.52</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>86.06</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>93.29000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>81.73</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>85.65000000000001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>85.05</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>76.37</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>93.68000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="2">
+        <v>42582</v>
+      </c>
+      <c r="B12">
         <v>85.84999999999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>87.16</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>79.23</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>82.98999999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>82.05</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>80.27</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>52.41</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>86.48999999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>88.16</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>89.90000000000001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>80.91</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>96.14</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>89.45</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>82.53</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>79.5</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>88.61</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>80.7</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>86.63</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>82.09</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>73.76000000000001</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>91.56999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B13">
         <v>71.72</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>86.62</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>62.24</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>86</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>90.34</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>85.03</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>69.87</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>92.23</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>88.34999999999999</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>93.42</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>75.17</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>95.97</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>92</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>82.23</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>77.86</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>87.33</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>79.51000000000001</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>84.91</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>83.8</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>75.93000000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>90.64</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B14">
         <v>81.45999999999999</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>87.09</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>66.97</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>84.81999999999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>88.06</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>85.95</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>63.43</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>84.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>90.41</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>89.73</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>79.01000000000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>90.51000000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>91.51000000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>85.19</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>78.73999999999999</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>87.19</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>84.68000000000001</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>89.09999999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>85.77</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>75.76000000000001</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>90.48999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B15">
         <v>85.01000000000001</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>89.67</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>75.13</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>79.90000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>88.36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>94.31999999999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>62.09</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>93.48</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>83.34999999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>93.42</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>85.84999999999999</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>95.17</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>90.53</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>90.02</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>85.14</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>91.5</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>83.56999999999999</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>87.61</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>89.37</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>77.63</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>92.72</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B16">
         <v>93.38</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>91.48999999999999</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>68.88</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>86.90000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>88.67</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>80.83</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>75.34</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>92.98999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>84.56</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>92.53</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>89.89</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>97.31999999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>93.15000000000001</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>88.70999999999999</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>91.03</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>88.73</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>84.95</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>85.88</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>88.78</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>81.98</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>92.83</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="2">
+        <v>42735</v>
+      </c>
+      <c r="B17">
         <v>93.14</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>87.34999999999999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>73.92</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>86.29000000000001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>90.02</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>88.37</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>64.79000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>90.18000000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>89.27</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>93.42</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>72.19</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>94.98999999999999</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>90.47</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>90.90000000000001</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>78.44</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>92.8</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>77.28</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>93.39</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>89.48</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>77.92</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>89.37</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B18">
         <v>84.48999999999999</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>92.33</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>68.45</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>88.05</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>88.2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>95.56</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>69.51000000000001</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>96.06999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>79.31999999999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>94.67</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>77.55</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>93.51000000000001</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>91.59999999999999</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>86.14</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>83.15000000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>92.53</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>77.22</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>80.22</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>88.06999999999999</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>79.77</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>93.59</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
+    <row r="19" spans="1:22">
+      <c r="A19" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B19">
         <v>73.5</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>91.09</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>69.7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>86.14</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>88.3</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>84.63</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>73.73</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>84.16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>85.90000000000001</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>96.61</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>70.72</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>95.2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>90.38</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>84.73999999999999</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>80.15000000000001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>91.70999999999999</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>82.7</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>89.23</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>86.18000000000001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>82.34</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>89.26000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
+    <row r="20" spans="1:22">
+      <c r="A20" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B20">
         <v>88.40000000000001</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>89.94</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>80.95</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>87.01000000000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>92.2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>86.75</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>74.31</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>90.53</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>90.68000000000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>93.45999999999999</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>74.93000000000001</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>91.62</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>95.58</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>86.91</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>87.06999999999999</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>96.56999999999999</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>78.84999999999999</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>89.04000000000001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>90.3</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>84.40000000000001</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>92.27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
+    <row r="21" spans="1:22">
+      <c r="A21" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B21">
         <v>82.34</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>93.14</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>71.44</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>92.20999999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>91.95</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>88.86</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>64.44</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>88.75</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>94.38</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>93.02</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>84.23</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>97.58</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>88.86</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>87.97</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>90.17</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>95.70999999999999</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>84.56</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>92.44</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>90.54000000000001</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>83.09</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>93.69</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
+    <row r="22" spans="1:22">
+      <c r="A22" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B22">
         <v>89.12</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>91.02</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>84.34</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>93.2</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>94.28</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>97.94</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>72.76000000000001</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>92.98</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>97.01000000000001</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>93.98</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>84.44</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>95.77</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>88.2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>91.79000000000001</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>93.29000000000001</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>88.90000000000001</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>83.51000000000001</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>93.61</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>92.75</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>81.05</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>90.63</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
+    <row r="23" spans="1:22">
+      <c r="A23" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B23">
         <v>83.65000000000001</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>89.75999999999999</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>76.97</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>91.735</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>91.955</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>91.925</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>64.90000000000001</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>91.30500000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>93.245</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>93.34</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>82.44499999999999</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>95.72</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>89.59999999999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>86.43000000000001</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>88.73500000000001</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>89.83000000000001</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>82.28</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>93.02500000000001</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>90.545</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>76.97499999999999</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>90.83</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
+    <row r="24" spans="1:22">
+      <c r="A24" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B24">
         <v>78.18000000000001</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>88.5</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>69.59999999999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>90.27</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>89.63</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>85.91</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>57.04</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>89.63</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>89.48</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>92.7</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>80.45</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>95.67</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>91</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>81.06999999999999</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>84.18000000000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>90.76000000000001</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>81.05</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>92.44</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>88.34</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>72.90000000000001</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>91.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25">
+    <row r="25" spans="1:22">
+      <c r="A25" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B25">
         <v>82.77</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>90.91</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>82.92</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>91.12</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>93.88</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>91.12</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>47.93</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>95.77</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>89.28</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>94.23</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>77.94</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>94.77</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>93.92</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>80.51000000000001</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>89.72</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>93.67</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>84.44</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>93.5</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>94.16</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>79.68000000000001</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>89.54000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26">
+    <row r="26" spans="1:22">
+      <c r="A26" s="2">
+        <v>43008</v>
+      </c>
+      <c r="B26">
         <v>76.59</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>82.68000000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>70.05</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>88.23</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>87.77</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>85.47</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>49.63</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>88.02</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>91.81</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>90.09</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>76.5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>95.87</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>86.67</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>82.27</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>85.77</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>94.62</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>85.06999999999999</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>92.87</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>92.17</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>80.40000000000001</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>87.37</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27">
+    <row r="27" spans="1:22">
+      <c r="A27" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B27">
         <v>83.28</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>85.45999999999999</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>71.78</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>91.69</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>90.42</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>82.43000000000001</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>63.45</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>95.37</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>94.67</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>91.48</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>73.11</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>98.47</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>91.33</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>78.17</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>91.52</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>96.17</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>90.98999999999999</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>86.88</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>88.95</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>67.27</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>91.94</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28">
+    <row r="28" spans="1:22">
+      <c r="A28" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B28">
         <v>86.45999999999999</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>87.75</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>80.97</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>89.08</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>93.2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>92.84999999999999</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>70.02</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>93.73999999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>90.16</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>93.42</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>81.45999999999999</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>98.26000000000001</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>89.37</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>85.66</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>85.64</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>93.90000000000001</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>88.79000000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>91.40000000000001</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>89.7</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>80.51000000000001</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>91.29000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29">
+    <row r="29" spans="1:22">
+      <c r="A29" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B29">
         <v>80.36</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>87.76000000000001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>71.39</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>88.48</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>91.62</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>94.33</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>74.16</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>94.27</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>89.78</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>92.90000000000001</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>86.94</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>98.02</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>88.3</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>83.84</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>90.5</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>89.29000000000001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>86.19</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>93.41</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>92.73999999999999</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>77.86</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>93.19</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30">
+    <row r="30" spans="1:22">
+      <c r="A30" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B30">
         <v>80.33</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>91.02</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>74.76000000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>89.69</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>89.94</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>90.42</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>69.42</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>93.73999999999999</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>92.14</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>93.33</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>78.61</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>94.23</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>92.11</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>80.95</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>92.51000000000001</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>91.16</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>87.18000000000001</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>94.88</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>93.77</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>81.09999999999999</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>89.95999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31">
+    <row r="31" spans="1:22">
+      <c r="A31" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B31">
         <v>82.16</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>89.70999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>75.98999999999999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>91.01000000000001</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>91.91</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>90.19</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>65.64</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>96.26000000000001</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>93.61</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>92.08</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>77.87</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>98.03</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>87.55</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>84.03</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>85.69</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>93.69</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>85.25</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>92.78</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>92.90000000000001</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>84.06999999999999</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>92.83</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
+    <row r="32" spans="1:22">
+      <c r="A32" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B32">
         <v>86.33</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>88.34999999999999</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>94.77</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>83.06</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>90.02</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>93.38</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>77.86</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>96.72</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>89.54000000000001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>92.04000000000001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>73.63</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>98.7</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>90.79000000000001</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>74.95</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>92.78</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>95.55</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>88.29000000000001</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>93.81</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>92.02</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>74.81999999999999</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>91.56</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
+    <row r="33" spans="1:22">
+      <c r="A33" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B33">
         <v>80.91</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>84.47</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>89.59</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>84.68000000000001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>89.44</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>90.03</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>63.53</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>98.48999999999999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>88.98</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>90.09</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>75.51000000000001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>95.56</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>90.81</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>78.2</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>94.98</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>96.66</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>79.59999999999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>93.83</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>92.58</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>77.47</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>84.91</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34">
+    <row r="34" spans="1:22">
+      <c r="A34" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B34">
         <v>81.41</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>80.55</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>75.91</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>78.63</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>84.87</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>88.63</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>51.77</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>95.7</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>86.11</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>88.90000000000001</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>67.55</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>92.97</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>85.59999999999999</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>78.14</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>87.75</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>96.33</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>81.33</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>95.38</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>90.22</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>74.45999999999999</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>85.55</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35">
+    <row r="35" spans="1:22">
+      <c r="A35" s="2">
+        <v>43281</v>
+      </c>
+      <c r="B35">
         <v>80.68000000000001</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>83.41</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>74.735</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>80.995</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>88.03</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>86.72</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>54.15000000000001</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>96.71000000000001</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>90.30500000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>92.38</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>75.68000000000001</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>93.47</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>86.715</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>77.89500000000001</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>87.425</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>92.205</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>82.40000000000001</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>95.36499999999999</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>91.005</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>72.175</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>85.125</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36">
+    <row r="36" spans="1:22">
+      <c r="A36" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B36">
         <v>79.95</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>86.27</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>73.56</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>83.36</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>91.19</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>84.81</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>56.53</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>97.72</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>94.5</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>95.86</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>83.81</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>93.97</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>87.83</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>77.65000000000001</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>87.09999999999999</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>88.08</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>83.47</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>95.34999999999999</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>91.79000000000001</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>69.89</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>84.7</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37">
+    <row r="37" spans="1:22">
+      <c r="A37" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B37">
         <v>76.2</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>87.43000000000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>80.45999999999999</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>85.81</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>87.97</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>88.48</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>65.91</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>92.64</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>90.23</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>95.25</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>94.90000000000001</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>96.59</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>89.62</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>86.11</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>88.52</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>95.03</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>81.69</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>94.45</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>87.37</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>76.81</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>88.56</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38">
+    <row r="38" spans="1:22">
+      <c r="A38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B38">
         <v>86.81</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>87.66</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>89.06</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>89.26000000000001</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>87.34999999999999</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>91.22</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>72.97</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>94.45999999999999</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>81.56</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>94.06</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>92.09999999999999</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>94.16</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>91.06999999999999</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>86.13</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>81.13</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>91.95999999999999</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>77.36</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>93.04000000000001</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>88.56</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>78.79000000000001</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>93.25</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39">
+    <row r="39" spans="1:22">
+      <c r="A39" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B39">
         <v>88.89</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>94.08</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>91.56999999999999</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>86.04000000000001</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>90.90000000000001</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>94.08</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>80.03</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>97.39</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>96.98999999999999</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>95.12</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>90.17</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>95.27</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>93</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>85.47</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>84.23999999999999</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>97.48</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>87.38</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>94.12</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>90.63</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>85.79000000000001</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>95.04000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40">
+    <row r="40" spans="1:22">
+      <c r="A40" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B40">
         <v>84.90000000000001</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>84.02</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>81.95999999999999</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>89.63</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>85.56</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>89.19</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>79.3</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>90.13</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>87.67</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>91.67</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>78.05</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>92.45</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>91.43000000000001</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>84.64</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>90.59999999999999</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>94.92</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>84.88</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>92.38</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>88.31</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>76.94</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>83.68000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41">
+    <row r="41" spans="1:22">
+      <c r="A41" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B41">
         <v>84.17</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>85.86</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>80.81999999999999</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>92.33</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>92.29000000000001</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>91.44</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>56.69</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>95.59999999999999</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>95.03</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>95.61</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>79.04000000000001</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>93.12</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>90.22</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>78.34999999999999</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>90.16</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>93.22</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>87.45</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>91.81</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>91.86</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>74.22</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>91.55</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42">
+    <row r="42" spans="1:22">
+      <c r="A42" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B42">
         <v>86.70999999999999</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>92.89</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>88.34999999999999</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>83.16</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>87.98</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>94.48999999999999</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>64.27</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>91.88</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>87.38</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>88.55</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>73.36</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>96.51000000000001</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>87.48</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>86.90000000000001</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>93.04000000000001</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>96.56999999999999</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>84.12</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>89.75</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>93.15000000000001</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>78.08</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>88.87</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
-      <c r="A43">
+    <row r="43" spans="1:22">
+      <c r="A43" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B43">
         <v>80.84999999999999</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>89.94499999999999</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>84.66999999999999</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>85.91</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>88.09</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>93.395</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>66.06</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>92.90000000000001</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>88.52500000000001</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>89.56999999999999</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>79.31999999999999</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>94.90000000000001</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>88.38</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>84.80000000000001</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>94.30500000000001</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>94.54499999999999</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>85.535</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>94.47499999999999</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>93.985</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>78.505</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>88.995</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44">
+    <row r="44" spans="1:22">
+      <c r="A44" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B44">
         <v>74.98999999999999</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>87</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>80.98999999999999</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>88.66</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>88.2</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>92.3</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>67.84999999999999</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>93.92</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>89.67</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>90.59</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>85.28</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>93.29000000000001</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>89.28</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>82.7</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>95.56999999999999</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>92.52</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>86.95</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>99.2</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>94.81999999999999</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>78.93000000000001</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>89.12</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="A45">
+    <row r="45" spans="1:22">
+      <c r="A45" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B45">
         <v>83.41</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>93.41</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>72.77</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>91.64</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>96.03</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>90.81</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>72.15000000000001</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>93.45999999999999</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>95.31999999999999</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>89.67</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>77.56</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>96.77</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>92.06999999999999</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>78.75</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>97.34999999999999</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>91.13</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>89.56</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>93.15000000000001</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>91.23</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>81.08</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>94.28</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="A46">
+    <row r="46" spans="1:22">
+      <c r="A46" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B46">
         <v>80.64</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>89.97499999999999</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>78.315</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>88.47</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>91.15000000000001</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>88.23</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>70.61500000000001</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>93.31999999999999</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>93.28999999999999</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>91.065</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>77.705</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>94.86</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>92.37</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>78.84</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>95.50999999999999</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>92.59</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>87.855</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>93.965</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>86.53</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>75.52</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>89.825</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
-      <c r="A47">
+    <row r="47" spans="1:22">
+      <c r="A47" s="2">
+        <v>43646</v>
+      </c>
+      <c r="B47">
         <v>77.87</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>86.54000000000001</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>83.86</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>85.3</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>86.27</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>85.65000000000001</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>69.08</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>93.18000000000001</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>91.26000000000001</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>92.45999999999999</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>77.84999999999999</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>92.95</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>92.67</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>78.93000000000001</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>93.67</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>94.05</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>86.15000000000001</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>94.78</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>81.83</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>69.95999999999999</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>85.37</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48">
+    <row r="48" spans="1:22">
+      <c r="A48" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B48">
         <v>74.47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>91.40000000000001</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>77.90000000000001</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>92.67</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>81.34999999999999</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>95.28</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>69.48999999999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>88.97</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>95.17</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>90.83</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>75.09999999999999</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>95.91</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>89.56</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>86.18000000000001</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>93.69</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>90.20999999999999</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>79.52</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>91.42</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>87.5</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>85.12</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>87.26000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49">
+    <row r="49" spans="1:22">
+      <c r="A49" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B49">
         <v>86.45</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>87.68000000000001</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>77.75</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>84.40000000000001</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>91.76000000000001</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>93.02</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>72.62</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>95.65000000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>93.34</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>93.88</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>77.94</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>99.51000000000001</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>91.98</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>88.84999999999999</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>86.43000000000001</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>91.2</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>83.90000000000001</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>94.79000000000001</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>85.03</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>78.89</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>83.06</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50">
+    <row r="50" spans="1:22">
+      <c r="A50" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B50">
         <v>78.72</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>87.52</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>84.5</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>87.36</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>93.48999999999999</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>92.23999999999999</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>71.83</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>88.58</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>93</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>91.29000000000001</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>77.44</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>92.97</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>91.44</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>83.06</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>92.31</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>89.65000000000001</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>84.08</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>91.98999999999999</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>91.38</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>86.8</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>91.39</v>
       </c>
     </row>
